--- a/data/trans_orig/P1422-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1422-Habitat-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>7150</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3053</v>
+        <v>3057</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>14807</v>
+        <v>14427</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01016368421288687</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.004340081768484141</v>
+        <v>0.004345872133698366</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02104899992422059</v>
+        <v>0.02050867453440503</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -764,19 +764,19 @@
         <v>4178</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1049</v>
+        <v>1058</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>10980</v>
+        <v>10612</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.005994367861275241</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.001505276432292327</v>
+        <v>0.001518402211838936</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01575226867329014</v>
+        <v>0.01522442794955462</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>11</v>
@@ -785,19 +785,19 @@
         <v>11328</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>6004</v>
+        <v>6198</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>19287</v>
+        <v>19349</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.008088580622425968</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.004286646091868102</v>
+        <v>0.00442554965151583</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01377132914276987</v>
+        <v>0.01381582984121293</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>696319</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>688662</v>
+        <v>689042</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>700416</v>
+        <v>700412</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9898363157871132</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9789510000757795</v>
+        <v>0.9794913254655948</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9956599182315159</v>
+        <v>0.9956541278663016</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>646</v>
@@ -835,19 +835,19 @@
         <v>692872</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>686070</v>
+        <v>686438</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>696001</v>
+        <v>695992</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9940056321387247</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9842477313267105</v>
+        <v>0.9847755720504462</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9984947235677076</v>
+        <v>0.998481597788161</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1313</v>
@@ -856,19 +856,19 @@
         <v>1389191</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1381232</v>
+        <v>1381170</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1394515</v>
+        <v>1394321</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.991911419377574</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9862286708572302</v>
+        <v>0.9861841701587869</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.995713353908132</v>
+        <v>0.9955744503484841</v>
       </c>
     </row>
     <row r="6">
@@ -960,19 +960,19 @@
         <v>10088</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4954</v>
+        <v>4966</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>17728</v>
+        <v>17302</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.009910122400234466</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.00486687312429553</v>
+        <v>0.00487821333391298</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01741586187943063</v>
+        <v>0.01699679859363848</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>7</v>
@@ -981,19 +981,19 @@
         <v>7565</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3222</v>
+        <v>3231</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>15254</v>
+        <v>16055</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.007352225045081403</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.003131551845779599</v>
+        <v>0.003140278539465309</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01482486429255193</v>
+        <v>0.01560284150080185</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>17</v>
@@ -1002,19 +1002,19 @@
         <v>17653</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>10410</v>
+        <v>10607</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>27845</v>
+        <v>27520</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.008624284358336244</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.005085641106642672</v>
+        <v>0.005181925438530575</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01360350446744227</v>
+        <v>0.01344477787608093</v>
       </c>
     </row>
     <row r="8">
@@ -1031,19 +1031,19 @@
         <v>1007859</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1000219</v>
+        <v>1000645</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1012993</v>
+        <v>1012981</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9900898775997655</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9825841381205696</v>
+        <v>0.9830032014063615</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9951331268757045</v>
+        <v>0.995121786666087</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>931</v>
@@ -1052,19 +1052,19 @@
         <v>1021408</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1013719</v>
+        <v>1012918</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1025751</v>
+        <v>1025742</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9926477749549186</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.985175135707448</v>
+        <v>0.9843971584991981</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9968684481542204</v>
+        <v>0.9968597214605346</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1857</v>
@@ -1073,19 +1073,19 @@
         <v>2029268</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2019076</v>
+        <v>2019401</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2036511</v>
+        <v>2036314</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9913757156416637</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9863964955325576</v>
+        <v>0.9865552221239187</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9949143588933573</v>
+        <v>0.9948180745614693</v>
       </c>
     </row>
     <row r="9">
@@ -1177,19 +1177,19 @@
         <v>7205</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2923</v>
+        <v>2945</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>18754</v>
+        <v>17539</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.009509520940310238</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.003858300520589354</v>
+        <v>0.003886840792745205</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02475363911688796</v>
+        <v>0.02315039537569376</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>4</v>
@@ -1198,19 +1198,19 @@
         <v>4489</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1106</v>
+        <v>1075</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>10725</v>
+        <v>10571</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.005775525667223713</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.001423570003831124</v>
+        <v>0.001383571301549687</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01379990327355945</v>
+        <v>0.01360241529231501</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>9</v>
@@ -1219,19 +1219,19 @@
         <v>11693</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>5910</v>
+        <v>5373</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>23101</v>
+        <v>21409</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.007618740948151903</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.00385048181247222</v>
+        <v>0.003500637793875543</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01505166464948651</v>
+        <v>0.01394933924297418</v>
       </c>
     </row>
     <row r="11">
@@ -1248,19 +1248,19 @@
         <v>750418</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>738869</v>
+        <v>740084</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>754700</v>
+        <v>754678</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9904904790596898</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.975246360883112</v>
+        <v>0.9768496046243063</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9961416994794107</v>
+        <v>0.9961131592072549</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>701</v>
@@ -1269,19 +1269,19 @@
         <v>772685</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>766449</v>
+        <v>766603</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>776068</v>
+        <v>776099</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9942244743327763</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9862000967264404</v>
+        <v>0.986397584707685</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9985764299961689</v>
+        <v>0.9986164286984504</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1385</v>
@@ -1290,19 +1290,19 @@
         <v>1523104</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1511696</v>
+        <v>1513388</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1528887</v>
+        <v>1529424</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9923812590518482</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9849483353505134</v>
+        <v>0.9860506607570254</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9961495181875276</v>
+        <v>0.9964993622061245</v>
       </c>
     </row>
     <row r="12">
@@ -1394,19 +1394,19 @@
         <v>9180</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4076</v>
+        <v>4069</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>18646</v>
+        <v>18870</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.009685848014102348</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.004300661619881773</v>
+        <v>0.004293832520162881</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01967443098111394</v>
+        <v>0.01991059045812088</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>9</v>
@@ -1415,19 +1415,19 @@
         <v>9147</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>4213</v>
+        <v>4171</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>17167</v>
+        <v>17071</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.008695405641941916</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.004005059377587573</v>
+        <v>0.003965571612764925</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01631966829084214</v>
+        <v>0.01622881899541319</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>17</v>
@@ -1436,19 +1436,19 @@
         <v>18326</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>10961</v>
+        <v>11064</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>30748</v>
+        <v>28675</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.009164830665077821</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.005481539454611594</v>
+        <v>0.005532816758957598</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0153768445655452</v>
+        <v>0.01434015686180652</v>
       </c>
     </row>
     <row r="14">
@@ -1465,19 +1465,19 @@
         <v>938559</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>929093</v>
+        <v>928869</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>943663</v>
+        <v>943670</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9903141519858977</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9803255690188861</v>
+        <v>0.9800894095418792</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9956993383801183</v>
+        <v>0.9957061674798371</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>994</v>
@@ -1486,19 +1486,19 @@
         <v>1042754</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1034734</v>
+        <v>1034830</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1047688</v>
+        <v>1047730</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9913045943580581</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9836803317091578</v>
+        <v>0.9837711810045869</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9959949406224125</v>
+        <v>0.9960344283872351</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1896</v>
@@ -1507,19 +1507,19 @@
         <v>1981314</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1968892</v>
+        <v>1970965</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1988679</v>
+        <v>1988576</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9908351693349222</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9846231554344548</v>
+        <v>0.9856598431381934</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9945184605453884</v>
+        <v>0.9944671832410424</v>
       </c>
     </row>
     <row r="15">
@@ -1611,19 +1611,19 @@
         <v>33622</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>22793</v>
+        <v>22002</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>48432</v>
+        <v>48575</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.009811579185572702</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.006651291581707361</v>
+        <v>0.00642069125283814</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01413342825751105</v>
+        <v>0.01417503574214527</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>24</v>
@@ -1632,19 +1632,19 @@
         <v>25379</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>15794</v>
+        <v>16944</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>36909</v>
+        <v>38077</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.00713873698309214</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.004442681543968316</v>
+        <v>0.004766138290239293</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01038196422814025</v>
+        <v>0.01071049260914045</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>54</v>
@@ -1653,19 +1653,19 @@
         <v>59001</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>43361</v>
+        <v>45530</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>77487</v>
+        <v>78127</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.008450596066418143</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.006210465108597622</v>
+        <v>0.006521217255817376</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0110983116935818</v>
+        <v>0.01118995083157292</v>
       </c>
     </row>
     <row r="17">
@@ -1682,19 +1682,19 @@
         <v>3393157</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3378347</v>
+        <v>3378204</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3403986</v>
+        <v>3404777</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9901884208144273</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9858665717424889</v>
+        <v>0.9858249642578553</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9933487084182927</v>
+        <v>0.9935793087471619</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3272</v>
@@ -1703,19 +1703,19 @@
         <v>3529719</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3518189</v>
+        <v>3517021</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3539304</v>
+        <v>3538154</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9928612630169079</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9896180357718597</v>
+        <v>0.9892895073908594</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9955573184560315</v>
+        <v>0.9952338617097607</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6451</v>
@@ -1724,19 +1724,19 @@
         <v>6922876</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6904390</v>
+        <v>6903750</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6938516</v>
+        <v>6936347</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9915494039335818</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9889016883064179</v>
+        <v>0.9888100491684271</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9937895348914021</v>
+        <v>0.9934787827441826</v>
       </c>
     </row>
     <row r="18">
@@ -2068,19 +2068,19 @@
         <v>6206</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2783</v>
+        <v>2668</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>11985</v>
+        <v>12163</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.009196585568873362</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.004123570104886179</v>
+        <v>0.003953181472837865</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01776069422850921</v>
+        <v>0.01802444009483245</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -2092,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7910</v>
+        <v>8649</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.003345145004340629</v>
@@ -2101,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01175565683810354</v>
+        <v>0.01285460974923205</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>9</v>
@@ -2110,19 +2110,19 @@
         <v>8457</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3826</v>
+        <v>3910</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>15938</v>
+        <v>15797</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.006275122616041736</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.002839286593994732</v>
+        <v>0.002901386627982456</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01182690950597439</v>
+        <v>0.01172226798670605</v>
       </c>
     </row>
     <row r="5">
@@ -2139,19 +2139,19 @@
         <v>668594</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>662815</v>
+        <v>662637</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>672017</v>
+        <v>672132</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9908034144311266</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9822393057714908</v>
+        <v>0.9819755599051675</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9958764298951138</v>
+        <v>0.9960468185271621</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>664</v>
@@ -2160,7 +2160,7 @@
         <v>670588</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>664929</v>
+        <v>664190</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>672839</v>
@@ -2169,7 +2169,7 @@
         <v>0.9966548549956594</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9882443431618965</v>
+        <v>0.987145390250768</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -2181,19 +2181,19 @@
         <v>1339182</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1331701</v>
+        <v>1331842</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1343813</v>
+        <v>1343729</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9937248773839583</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9881730904940261</v>
+        <v>0.9882777320132944</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9971607134060053</v>
+        <v>0.9970986133720177</v>
       </c>
     </row>
     <row r="6">
@@ -2285,19 +2285,19 @@
         <v>3004</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>9086</v>
+        <v>8056</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.002938289006122323</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0008600435493400538</v>
+        <v>0.000857793794965896</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.008886992801394869</v>
+        <v>0.00787888223911363</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>7</v>
@@ -2306,19 +2306,19 @@
         <v>8676</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4254</v>
+        <v>3383</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>18434</v>
+        <v>18250</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.008318567149297768</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.004078584644702226</v>
+        <v>0.003243344949995731</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01767587366466808</v>
+        <v>0.01749915526007035</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>10</v>
@@ -2327,19 +2327,19 @@
         <v>11680</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>6098</v>
+        <v>6384</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>21349</v>
+        <v>22581</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.005655106178796167</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.00295254590721147</v>
+        <v>0.003090789482913818</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01033656818462298</v>
+        <v>0.01093318128085016</v>
       </c>
     </row>
     <row r="8">
@@ -2356,19 +2356,19 @@
         <v>1019427</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1013345</v>
+        <v>1014375</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1021552</v>
+        <v>1021554</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9970617109938776</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9911130071986057</v>
+        <v>0.9921211177608865</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.99913995645066</v>
+        <v>0.9991422062050341</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>970</v>
@@ -2377,19 +2377,19 @@
         <v>1034237</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1024479</v>
+        <v>1024663</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1038659</v>
+        <v>1039530</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9916814328507022</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9823241263353319</v>
+        <v>0.9825008447399296</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9959214153552978</v>
+        <v>0.9967566550500043</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1918</v>
@@ -2398,19 +2398,19 @@
         <v>2053664</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2043995</v>
+        <v>2042763</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2059246</v>
+        <v>2058960</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9943448938212038</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9896634318153771</v>
+        <v>0.9890668187191503</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9970474540927886</v>
+        <v>0.9969092105170861</v>
       </c>
     </row>
     <row r="9">
@@ -2502,19 +2502,19 @@
         <v>4867</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1789</v>
+        <v>1752</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>14308</v>
+        <v>13476</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.006408101997254915</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.002355412314688991</v>
+        <v>0.002306241840131643</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01883804876196091</v>
+        <v>0.01774233943998838</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>5135</v>
+        <v>7618</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.001619178103051335</v>
@@ -2535,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.006541216502724357</v>
+        <v>0.009704313890527273</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>5</v>
@@ -2544,19 +2544,19 @@
         <v>6138</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2175</v>
+        <v>2218</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>14460</v>
+        <v>14238</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.003974172757832989</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.001408190060549703</v>
+        <v>0.001435990109485352</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.009361779539498242</v>
+        <v>0.009217931965506177</v>
       </c>
     </row>
     <row r="11">
@@ -2573,19 +2573,19 @@
         <v>754685</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>745244</v>
+        <v>746076</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>757763</v>
+        <v>757800</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9935918980027451</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9811619512380391</v>
+        <v>0.9822576605600116</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9976445876853111</v>
+        <v>0.9976937581598684</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>735</v>
@@ -2594,7 +2594,7 @@
         <v>783740</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>779876</v>
+        <v>777393</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>785011</v>
@@ -2603,7 +2603,7 @@
         <v>0.9983808218969487</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9934587834972757</v>
+        <v>0.9902956861094727</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -2615,19 +2615,19 @@
         <v>1538425</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1530103</v>
+        <v>1530325</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1542388</v>
+        <v>1542345</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.996025827242167</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9906382204605017</v>
+        <v>0.9907820680344938</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9985918099394503</v>
+        <v>0.9985640098905146</v>
       </c>
     </row>
     <row r="12">
@@ -2719,19 +2719,19 @@
         <v>7491</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3731</v>
+        <v>3629</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>15171</v>
+        <v>14119</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.007989612162591789</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.003979287015355444</v>
+        <v>0.003870361663292938</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01618115180470682</v>
+        <v>0.01505926532784459</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>7</v>
@@ -2740,19 +2740,19 @@
         <v>8602</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3808</v>
+        <v>3490</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>18396</v>
+        <v>17637</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.008241628911225356</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.003648686594969099</v>
+        <v>0.003343925302211815</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01762444651623521</v>
+        <v>0.01689719930550681</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>15</v>
@@ -2761,19 +2761,19 @@
         <v>16093</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>9547</v>
+        <v>9447</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>27047</v>
+        <v>25926</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.008122375340501758</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.00481868300489722</v>
+        <v>0.004767781585494652</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01365091176073093</v>
+        <v>0.013085008552893</v>
       </c>
     </row>
     <row r="14">
@@ -2790,19 +2790,19 @@
         <v>930076</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>922396</v>
+        <v>923448</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>933836</v>
+        <v>933938</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9920103878374082</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9838188481952931</v>
+        <v>0.9849407346721554</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9960207129846446</v>
+        <v>0.9961296383367071</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>952</v>
@@ -2811,19 +2811,19 @@
         <v>1035177</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1025383</v>
+        <v>1026142</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1039971</v>
+        <v>1040289</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9917583710887746</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9823755534837646</v>
+        <v>0.9831028006944932</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9963513134050309</v>
+        <v>0.9966560746977882</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1876</v>
@@ -2832,19 +2832,19 @@
         <v>1965253</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1954299</v>
+        <v>1955420</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1971799</v>
+        <v>1971899</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9918776246594982</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9863490882392695</v>
+        <v>0.9869149914471067</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9951813169951029</v>
+        <v>0.9952322184145053</v>
       </c>
     </row>
     <row r="15">
@@ -2936,19 +2936,19 @@
         <v>21568</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>13572</v>
+        <v>13651</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>31823</v>
+        <v>31822</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.006354128810399229</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.003998457391142097</v>
+        <v>0.004021652876140054</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.009375302270314204</v>
+        <v>0.009375123287530464</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>17</v>
@@ -2957,19 +2957,19 @@
         <v>20800</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>12264</v>
+        <v>11970</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>33268</v>
+        <v>32621</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.005868119955260486</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.003459998997012412</v>
+        <v>0.003376992085204773</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.009385772421166947</v>
+        <v>0.00920330434604541</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>39</v>
@@ -2978,19 +2978,19 @@
         <v>42368</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>30531</v>
+        <v>30274</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>59285</v>
+        <v>57613</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.006105864575420084</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.004399922747766326</v>
+        <v>0.004363014154180438</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.008543812726676642</v>
+        <v>0.008302921142464332</v>
       </c>
     </row>
     <row r="17">
@@ -3007,19 +3007,19 @@
         <v>3372782</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3362527</v>
+        <v>3362528</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3380778</v>
+        <v>3380699</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9936458711896008</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.990624697729686</v>
+        <v>0.9906248767124696</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.996001542608858</v>
+        <v>0.99597834712386</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3321</v>
@@ -3028,19 +3028,19 @@
         <v>3523742</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3511274</v>
+        <v>3511921</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3532278</v>
+        <v>3532572</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9941318800447395</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9906142275788331</v>
+        <v>0.9907966956539552</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9965400010029876</v>
+        <v>0.9966230079147952</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6530</v>
@@ -3049,19 +3049,19 @@
         <v>6896524</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6879607</v>
+        <v>6881279</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6908361</v>
+        <v>6908618</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9938941354245799</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9914561872733237</v>
+        <v>0.9916970788575354</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9956000772522341</v>
+        <v>0.9956369858458195</v>
       </c>
     </row>
     <row r="18">
@@ -3393,19 +3393,19 @@
         <v>12102</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7090</v>
+        <v>7224</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>19762</v>
+        <v>20473</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01752127550403037</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0102654125617198</v>
+        <v>0.01045857016121452</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02861097788937447</v>
+        <v>0.02964113633368674</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>18</v>
@@ -3414,19 +3414,19 @@
         <v>8139</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4935</v>
+        <v>4949</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>13144</v>
+        <v>12935</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01110745781645712</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.006735668447012104</v>
+        <v>0.006754388535201183</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01793855420827502</v>
+        <v>0.01765291008039156</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>35</v>
@@ -3435,19 +3435,19 @@
         <v>20241</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>13846</v>
+        <v>14009</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>29179</v>
+        <v>28636</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.01421971548651257</v>
+        <v>0.01421971548651258</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.009726900268400146</v>
+        <v>0.009841759711306103</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02049908108767939</v>
+        <v>0.02011768812842594</v>
       </c>
     </row>
     <row r="5">
@@ -3464,19 +3464,19 @@
         <v>678608</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>670948</v>
+        <v>670237</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>683620</v>
+        <v>683486</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9824787244959697</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9713890221106256</v>
+        <v>0.9703588636663133</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9897345874382801</v>
+        <v>0.9895414298387855</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1220</v>
@@ -3485,19 +3485,19 @@
         <v>724583</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>719578</v>
+        <v>719787</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>727787</v>
+        <v>727773</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9888925421835429</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9820614457917257</v>
+        <v>0.9823470899196082</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9932643315529881</v>
+        <v>0.9932456114647987</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1933</v>
@@ -3506,19 +3506,19 @@
         <v>1403190</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1394252</v>
+        <v>1394795</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1409585</v>
+        <v>1409422</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9857802845134872</v>
+        <v>0.9857802845134874</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9795009189123203</v>
+        <v>0.979882311871574</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9902730997315998</v>
+        <v>0.990158240288694</v>
       </c>
     </row>
     <row r="6">
@@ -3610,19 +3610,19 @@
         <v>14490</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>8475</v>
+        <v>8571</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>23172</v>
+        <v>24364</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01381461697800187</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.008079421687311659</v>
+        <v>0.008171537761690672</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02209126827690193</v>
+        <v>0.02322734573299551</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>21</v>
@@ -3631,19 +3631,19 @@
         <v>11781</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>7309</v>
+        <v>7358</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>17430</v>
+        <v>17756</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01100830668689947</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.006830075300050897</v>
+        <v>0.006875236988460937</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01628674307552257</v>
+        <v>0.01659154019781791</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>40</v>
@@ -3652,19 +3652,19 @@
         <v>26271</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>18620</v>
+        <v>18360</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>36279</v>
+        <v>36051</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01239737812795856</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.008786732024209275</v>
+        <v>0.0086640783461037</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01712003905023898</v>
+        <v>0.01701224678842762</v>
       </c>
     </row>
     <row r="8">
@@ -3681,19 +3681,19 @@
         <v>1034427</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1025745</v>
+        <v>1024553</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1040442</v>
+        <v>1040346</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9861853830219982</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9779087317230981</v>
+        <v>0.9767726542670042</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9919205783126883</v>
+        <v>0.9918284622383094</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1494</v>
@@ -3702,19 +3702,19 @@
         <v>1058406</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1052757</v>
+        <v>1052431</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1062878</v>
+        <v>1062829</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9889916933131007</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9837132569244774</v>
+        <v>0.9834084598021819</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9931699246999492</v>
+        <v>0.9931247630115391</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2439</v>
@@ -3723,19 +3723,19 @@
         <v>2092833</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2082825</v>
+        <v>2083053</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2100484</v>
+        <v>2100744</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9876026218720416</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9828799609497633</v>
+        <v>0.9829877532115723</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.991213267975791</v>
+        <v>0.9913359216538959</v>
       </c>
     </row>
     <row r="9">
@@ -3827,19 +3827,19 @@
         <v>9897</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5266</v>
+        <v>5343</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>16602</v>
+        <v>18077</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01238059097806169</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.00658735502848764</v>
+        <v>0.006684506508136917</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02076885327641164</v>
+        <v>0.02261357942554034</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>8</v>
@@ -3848,19 +3848,19 @@
         <v>5834</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2596</v>
+        <v>2566</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>12335</v>
+        <v>11761</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.007200111249823967</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.003203763927726659</v>
+        <v>0.003167567715540371</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01522420610396843</v>
+        <v>0.01451643128544483</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>19</v>
@@ -3869,19 +3869,19 @@
         <v>15730</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>9947</v>
+        <v>9585</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>25238</v>
+        <v>24038</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.009772923424732197</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.006179977117633198</v>
+        <v>0.005955116156668248</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01568000660090266</v>
+        <v>0.01493442471229402</v>
       </c>
     </row>
     <row r="11">
@@ -3898,19 +3898,19 @@
         <v>789472</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>782767</v>
+        <v>781292</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>794103</v>
+        <v>794026</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9876194090219383</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9792311467235887</v>
+        <v>0.9773864205744596</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9934126449715124</v>
+        <v>0.9933154934918631</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1036</v>
@@ -3919,19 +3919,19 @@
         <v>804364</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>797863</v>
+        <v>798437</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>807602</v>
+        <v>807632</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.992799888750176</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9847757938960319</v>
+        <v>0.9854835687145551</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9967962360722733</v>
+        <v>0.9968324322844596</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1697</v>
@@ -3940,19 +3940,19 @@
         <v>1593837</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1584329</v>
+        <v>1585529</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1599620</v>
+        <v>1599982</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9902270765752678</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9843199933990978</v>
+        <v>0.9850655752877059</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.993820022882367</v>
+        <v>0.9940448838433318</v>
       </c>
     </row>
     <row r="12">
@@ -4044,19 +4044,19 @@
         <v>8349</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4442</v>
+        <v>4378</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>14624</v>
+        <v>15037</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.008432767115152832</v>
+        <v>0.008432767115152831</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.004486481657808842</v>
+        <v>0.004421511458123242</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01477089816054</v>
+        <v>0.01518745146812397</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>20</v>
@@ -4065,19 +4065,19 @@
         <v>12908</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>7770</v>
+        <v>7667</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>19148</v>
+        <v>18918</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01154902349579471</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.006951955385991131</v>
+        <v>0.006860258602751968</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0171325895133407</v>
+        <v>0.01692657028726611</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>32</v>
@@ -4086,19 +4086,19 @@
         <v>21257</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>15044</v>
+        <v>14538</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>29631</v>
+        <v>29107</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.01008520342037689</v>
+        <v>0.0100852034203769</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.007137580819001484</v>
+        <v>0.006897694305782662</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01405826607010865</v>
+        <v>0.01381001018674601</v>
       </c>
     </row>
     <row r="14">
@@ -4115,19 +4115,19 @@
         <v>981713</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>975438</v>
+        <v>975025</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>985620</v>
+        <v>985684</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9915672328848472</v>
+        <v>0.9915672328848473</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9852291018394599</v>
+        <v>0.9848125485318761</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9955135183421913</v>
+        <v>0.9955784885418766</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1540</v>
@@ -4136,19 +4136,19 @@
         <v>1104726</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1098486</v>
+        <v>1098716</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1109864</v>
+        <v>1109967</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9884509765042053</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9828674104866593</v>
+        <v>0.983073429712734</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9930480446140088</v>
+        <v>0.9931397413972478</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2534</v>
@@ -4157,19 +4157,19 @@
         <v>2086439</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2078065</v>
+        <v>2078589</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>2092652</v>
+        <v>2093158</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.989914796579623</v>
+        <v>0.9899147965796232</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9859417339298912</v>
+        <v>0.9861899898132535</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9928624191809985</v>
+        <v>0.9931023056942175</v>
       </c>
     </row>
     <row r="15">
@@ -4261,19 +4261,19 @@
         <v>44838</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>34224</v>
+        <v>33335</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>59425</v>
+        <v>59436</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01270540944365827</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.009697682073014939</v>
+        <v>0.009445945279275846</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01683890325641329</v>
+        <v>0.01684194234977896</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>67</v>
@@ -4282,19 +4282,19 @@
         <v>38661</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>29827</v>
+        <v>30199</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>49855</v>
+        <v>50055</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01036274605342874</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.007994894999724122</v>
+        <v>0.008094529620521167</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01336317397680795</v>
+        <v>0.0134168526528634</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>126</v>
@@ -4303,19 +4303,19 @@
         <v>83499</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>69164</v>
+        <v>69377</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>99943</v>
+        <v>99287</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01150153719810661</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.009526988193856027</v>
+        <v>0.009556331511637747</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01376669724732113</v>
+        <v>0.01367628259453038</v>
       </c>
     </row>
     <row r="17">
@@ -4332,19 +4332,19 @@
         <v>3484220</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3469633</v>
+        <v>3469622</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3494834</v>
+        <v>3495723</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9872945905563418</v>
+        <v>0.9872945905563417</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9831610967435865</v>
+        <v>0.9831580576502214</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9903023179269851</v>
+        <v>0.9905540547207241</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5290</v>
@@ -4353,19 +4353,19 @@
         <v>3692080</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3680886</v>
+        <v>3680686</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3700914</v>
+        <v>3700542</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9896372539465712</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9866368260231917</v>
+        <v>0.9865831473471357</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9920051050002757</v>
+        <v>0.9919054703794786</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8603</v>
@@ -4374,19 +4374,19 @@
         <v>7176300</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>7159856</v>
+        <v>7160512</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>7190635</v>
+        <v>7190422</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9884984628018934</v>
+        <v>0.9884984628018932</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9862333027526781</v>
+        <v>0.9863237174054698</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.990473011806144</v>
+        <v>0.9904436684883617</v>
       </c>
     </row>
     <row r="18">
